--- a/map/aggregated_results_webpage.xlsx
+++ b/map/aggregated_results_webpage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\IWPP\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913318C8-5FC5-4A2D-9E34-C31BEB9732F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B5128-76F7-41DA-9AE1-FCFD6B3112B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="975" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Note" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
     <sheet name="residential_demand" sheetId="12" r:id="rId12"/>
     <sheet name="water_demand" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="108">
   <si>
     <t>Metrics</t>
   </si>
@@ -141,54 +144,6 @@
   </si>
   <si>
     <t>Average daily residential water demand</t>
-  </si>
-  <si>
-    <t>first digit =</t>
-  </si>
-  <si>
-    <t>Developments</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage 1 </t>
-  </si>
-  <si>
-    <t>(status 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage 2 </t>
-  </si>
-  <si>
-    <t>(status 3+2)</t>
-  </si>
-  <si>
-    <t>Stage 3</t>
-  </si>
-  <si>
-    <t>(status 3+2+1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">second digit = </t>
-  </si>
-  <si>
-    <t>offset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">third digit = </t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>rcp26</t>
-  </si>
-  <si>
-    <t>rcp85</t>
   </si>
   <si>
     <t>river ids</t>
@@ -483,14 +438,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,6 +459,193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Note"/>
+      <sheetName val="drought_risk"/>
+      <sheetName val="highflow_risk"/>
+      <sheetName val="mean_flow"/>
+      <sheetName val="CSO_events"/>
+      <sheetName val="ammonia_conc"/>
+      <sheetName val="nitrate_conc"/>
+      <sheetName val="phosphate_conc"/>
+      <sheetName val="ammonia_load"/>
+      <sheetName val="nitrate_load"/>
+      <sheetName val="phosphate_load"/>
+      <sheetName val="residential_demand"/>
+      <sheetName val="water_demand"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="11">
+          <cell r="B11">
+            <v>37178.424966532024</v>
+          </cell>
+          <cell r="C11">
+            <v>37178.424966532039</v>
+          </cell>
+          <cell r="D11">
+            <v>37178.424966532039</v>
+          </cell>
+          <cell r="E11">
+            <v>37112.096251658913</v>
+          </cell>
+          <cell r="F11">
+            <v>37112.096251658913</v>
+          </cell>
+          <cell r="G11">
+            <v>37112.096251658913</v>
+          </cell>
+          <cell r="H11">
+            <v>37027.749084904615</v>
+          </cell>
+          <cell r="I11">
+            <v>37027.749084904615</v>
+          </cell>
+          <cell r="J11">
+            <v>37027.749084904615</v>
+          </cell>
+          <cell r="K11">
+            <v>37017.298708717921</v>
+          </cell>
+          <cell r="L11">
+            <v>37017.298708717921</v>
+          </cell>
+          <cell r="M11">
+            <v>37017.298708717921</v>
+          </cell>
+          <cell r="N11">
+            <v>39931.63460646553</v>
+          </cell>
+          <cell r="O11">
+            <v>39931.63460646553</v>
+          </cell>
+          <cell r="P11">
+            <v>39931.63460646553</v>
+          </cell>
+          <cell r="Q11">
+            <v>39865.305891592412</v>
+          </cell>
+          <cell r="R11">
+            <v>39865.305891592412</v>
+          </cell>
+          <cell r="S11">
+            <v>39865.305891592412</v>
+          </cell>
+          <cell r="T11">
+            <v>39780.958724838107</v>
+          </cell>
+          <cell r="U11">
+            <v>39780.958724838107</v>
+          </cell>
+          <cell r="V11">
+            <v>39780.958724838107</v>
+          </cell>
+          <cell r="W11">
+            <v>39770.508348651412</v>
+          </cell>
+          <cell r="X11">
+            <v>39770.508348651412</v>
+          </cell>
+          <cell r="Y11">
+            <v>39770.508348651412</v>
+          </cell>
+          <cell r="Z11">
+            <v>40823.878194260309</v>
+          </cell>
+          <cell r="AA11">
+            <v>40823.878194260309</v>
+          </cell>
+          <cell r="AB11">
+            <v>40823.878194260309</v>
+          </cell>
+          <cell r="AC11">
+            <v>40757.549479387191</v>
+          </cell>
+          <cell r="AD11">
+            <v>40757.549479387191</v>
+          </cell>
+          <cell r="AE11">
+            <v>40757.549479387191</v>
+          </cell>
+          <cell r="AF11">
+            <v>40673.202312632886</v>
+          </cell>
+          <cell r="AG11">
+            <v>40673.202312632886</v>
+          </cell>
+          <cell r="AH11">
+            <v>40673.202312632886</v>
+          </cell>
+          <cell r="AI11">
+            <v>40662.751936446191</v>
+          </cell>
+          <cell r="AJ11">
+            <v>40662.751936446191</v>
+          </cell>
+          <cell r="AK11">
+            <v>40662.751936446191</v>
+          </cell>
+          <cell r="AL11">
+            <v>40740.172649508095</v>
+          </cell>
+          <cell r="AM11">
+            <v>40740.172649508095</v>
+          </cell>
+          <cell r="AN11">
+            <v>40740.172649508095</v>
+          </cell>
+          <cell r="AO11">
+            <v>40673.84393463497</v>
+          </cell>
+          <cell r="AP11">
+            <v>40673.84393463497</v>
+          </cell>
+          <cell r="AQ11">
+            <v>40673.84393463497</v>
+          </cell>
+          <cell r="AR11">
+            <v>40589.496767880672</v>
+          </cell>
+          <cell r="AS11">
+            <v>40589.496767880672</v>
+          </cell>
+          <cell r="AT11">
+            <v>40589.496767880672</v>
+          </cell>
+          <cell r="AU11">
+            <v>40579.04639169397</v>
+          </cell>
+          <cell r="AV11">
+            <v>40579.04639169397</v>
+          </cell>
+          <cell r="AW11">
+            <v>40579.04639169397</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,17 +911,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -951,136 +1090,6 @@
       </c>
       <c r="D12" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1092,164 +1101,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>6245005.5882665114</v>
@@ -1398,7 +1405,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>9610025.9205706045</v>
@@ -1547,7 +1554,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>2705125.733336207</v>
@@ -1703,164 +1710,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>205808.35104725679</v>
@@ -2009,7 +2014,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>461315.17126199591</v>
@@ -2158,7 +2163,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>130527.2069796313</v>
@@ -2314,167 +2319,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>7698.7540810236833</v>
@@ -2623,7 +2625,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>1748.5876408425979</v>
@@ -2772,7 +2774,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>362.36752029364942</v>
@@ -2921,7 +2923,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>18578.30469862192</v>
@@ -3070,7 +3072,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>8790.4110257501725</v>
@@ -3417,11 +3419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6441BB70-74E6-44BC-AB3B-5D2B3611FAC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B858072-2849-46F1-BE47-1D71997A94CC}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3431,1332 +3433,1332 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B2">
-        <f>residential_demand!B$11*$B10</f>
+        <f>[1]residential_demand!B$11*$B10</f>
         <v>13012.448738286208</v>
       </c>
       <c r="C2">
-        <f>residential_demand!C$11*$B10</f>
+        <f>[1]residential_demand!C$11*$B10</f>
         <v>13012.448738286213</v>
       </c>
       <c r="D2">
-        <f>residential_demand!D$11*$B10</f>
+        <f>[1]residential_demand!D$11*$B10</f>
         <v>13012.448738286213</v>
       </c>
       <c r="E2">
-        <f>residential_demand!E$11*$B10</f>
+        <f>[1]residential_demand!E$11*$B10</f>
         <v>12989.23368808062</v>
       </c>
       <c r="F2">
-        <f>residential_demand!F$11*$B10</f>
+        <f>[1]residential_demand!F$11*$B10</f>
         <v>12989.23368808062</v>
       </c>
       <c r="G2">
-        <f>residential_demand!G$11*$B10</f>
+        <f>[1]residential_demand!G$11*$B10</f>
         <v>12989.23368808062</v>
       </c>
       <c r="H2">
-        <f>residential_demand!H$11*$B10</f>
+        <f>[1]residential_demand!H$11*$B10</f>
         <v>12959.712179716615</v>
       </c>
       <c r="I2">
-        <f>residential_demand!I$11*$B10</f>
+        <f>[1]residential_demand!I$11*$B10</f>
         <v>12959.712179716615</v>
       </c>
       <c r="J2">
-        <f>residential_demand!J$11*$B10</f>
+        <f>[1]residential_demand!J$11*$B10</f>
         <v>12959.712179716615</v>
       </c>
       <c r="K2">
-        <f>residential_demand!K$11*$B10</f>
+        <f>[1]residential_demand!K$11*$B10</f>
         <v>12956.054548051272</v>
       </c>
       <c r="L2">
-        <f>residential_demand!L$11*$B10</f>
+        <f>[1]residential_demand!L$11*$B10</f>
         <v>12956.054548051272</v>
       </c>
       <c r="M2">
-        <f>residential_demand!M$11*$B10</f>
+        <f>[1]residential_demand!M$11*$B10</f>
         <v>12956.054548051272</v>
       </c>
       <c r="N2">
-        <f>residential_demand!N$11*$B10</f>
+        <f>[1]residential_demand!N$11*$B10</f>
         <v>13976.072112262935</v>
       </c>
       <c r="O2">
-        <f>residential_demand!O$11*$B10</f>
+        <f>[1]residential_demand!O$11*$B10</f>
         <v>13976.072112262935</v>
       </c>
       <c r="P2">
-        <f>residential_demand!P$11*$B10</f>
+        <f>[1]residential_demand!P$11*$B10</f>
         <v>13976.072112262935</v>
       </c>
       <c r="Q2">
-        <f>residential_demand!Q$11*$B10</f>
+        <f>[1]residential_demand!Q$11*$B10</f>
         <v>13952.857062057343</v>
       </c>
       <c r="R2">
-        <f>residential_demand!R$11*$B10</f>
+        <f>[1]residential_demand!R$11*$B10</f>
         <v>13952.857062057343</v>
       </c>
       <c r="S2">
-        <f>residential_demand!S$11*$B10</f>
+        <f>[1]residential_demand!S$11*$B10</f>
         <v>13952.857062057343</v>
       </c>
       <c r="T2">
-        <f>residential_demand!T$11*$B10</f>
+        <f>[1]residential_demand!T$11*$B10</f>
         <v>13923.335553693336</v>
       </c>
       <c r="U2">
-        <f>residential_demand!U$11*$B10</f>
+        <f>[1]residential_demand!U$11*$B10</f>
         <v>13923.335553693336</v>
       </c>
       <c r="V2">
-        <f>residential_demand!V$11*$B10</f>
+        <f>[1]residential_demand!V$11*$B10</f>
         <v>13923.335553693336</v>
       </c>
       <c r="W2">
-        <f>residential_demand!W$11*$B10</f>
+        <f>[1]residential_demand!W$11*$B10</f>
         <v>13919.677922027993</v>
       </c>
       <c r="X2">
-        <f>residential_demand!X$11*$B10</f>
+        <f>[1]residential_demand!X$11*$B10</f>
         <v>13919.677922027993</v>
       </c>
       <c r="Y2">
-        <f>residential_demand!Y$11*$B10</f>
+        <f>[1]residential_demand!Y$11*$B10</f>
         <v>13919.677922027993</v>
       </c>
       <c r="Z2">
-        <f>residential_demand!Z$11*$B10</f>
+        <f>[1]residential_demand!Z$11*$B10</f>
         <v>14288.357367991108</v>
       </c>
       <c r="AA2">
-        <f>residential_demand!AA$11*$B10</f>
+        <f>[1]residential_demand!AA$11*$B10</f>
         <v>14288.357367991108</v>
       </c>
       <c r="AB2">
-        <f>residential_demand!AB$11*$B10</f>
+        <f>[1]residential_demand!AB$11*$B10</f>
         <v>14288.357367991108</v>
       </c>
       <c r="AC2">
-        <f>residential_demand!AC$11*$B10</f>
+        <f>[1]residential_demand!AC$11*$B10</f>
         <v>14265.142317785516</v>
       </c>
       <c r="AD2">
-        <f>residential_demand!AD$11*$B10</f>
+        <f>[1]residential_demand!AD$11*$B10</f>
         <v>14265.142317785516</v>
       </c>
       <c r="AE2">
-        <f>residential_demand!AE$11*$B10</f>
+        <f>[1]residential_demand!AE$11*$B10</f>
         <v>14265.142317785516</v>
       </c>
       <c r="AF2">
-        <f>residential_demand!AF$11*$B10</f>
+        <f>[1]residential_demand!AF$11*$B10</f>
         <v>14235.620809421509</v>
       </c>
       <c r="AG2">
-        <f>residential_demand!AG$11*$B10</f>
+        <f>[1]residential_demand!AG$11*$B10</f>
         <v>14235.620809421509</v>
       </c>
       <c r="AH2">
-        <f>residential_demand!AH$11*$B10</f>
+        <f>[1]residential_demand!AH$11*$B10</f>
         <v>14235.620809421509</v>
       </c>
       <c r="AI2">
-        <f>residential_demand!AI$11*$B10</f>
+        <f>[1]residential_demand!AI$11*$B10</f>
         <v>14231.963177756166</v>
       </c>
       <c r="AJ2">
-        <f>residential_demand!AJ$11*$B10</f>
+        <f>[1]residential_demand!AJ$11*$B10</f>
         <v>14231.963177756166</v>
       </c>
       <c r="AK2">
-        <f>residential_demand!AK$11*$B10</f>
+        <f>[1]residential_demand!AK$11*$B10</f>
         <v>14231.963177756166</v>
       </c>
       <c r="AL2">
-        <f>residential_demand!AL$11*$B10</f>
+        <f>[1]residential_demand!AL$11*$B10</f>
         <v>14259.060427327833</v>
       </c>
       <c r="AM2">
-        <f>residential_demand!AM$11*$B10</f>
+        <f>[1]residential_demand!AM$11*$B10</f>
         <v>14259.060427327833</v>
       </c>
       <c r="AN2">
-        <f>residential_demand!AN$11*$B10</f>
+        <f>[1]residential_demand!AN$11*$B10</f>
         <v>14259.060427327833</v>
       </c>
       <c r="AO2">
-        <f>residential_demand!AO$11*$B10</f>
+        <f>[1]residential_demand!AO$11*$B10</f>
         <v>14235.845377122239</v>
       </c>
       <c r="AP2">
-        <f>residential_demand!AP$11*$B10</f>
+        <f>[1]residential_demand!AP$11*$B10</f>
         <v>14235.845377122239</v>
       </c>
       <c r="AQ2">
-        <f>residential_demand!AQ$11*$B10</f>
+        <f>[1]residential_demand!AQ$11*$B10</f>
         <v>14235.845377122239</v>
       </c>
       <c r="AR2">
-        <f>residential_demand!AR$11*$B10</f>
+        <f>[1]residential_demand!AR$11*$B10</f>
         <v>14206.323868758234</v>
       </c>
       <c r="AS2">
-        <f>residential_demand!AS$11*$B10</f>
+        <f>[1]residential_demand!AS$11*$B10</f>
         <v>14206.323868758234</v>
       </c>
       <c r="AT2">
-        <f>residential_demand!AT$11*$B10</f>
+        <f>[1]residential_demand!AT$11*$B10</f>
         <v>14206.323868758234</v>
       </c>
       <c r="AU2">
-        <f>residential_demand!AU$11*$B10</f>
+        <f>[1]residential_demand!AU$11*$B10</f>
         <v>14202.666237092888</v>
       </c>
       <c r="AV2">
-        <f>residential_demand!AV$11*$B10</f>
+        <f>[1]residential_demand!AV$11*$B10</f>
         <v>14202.666237092888</v>
       </c>
       <c r="AW2">
-        <f>residential_demand!AW$11*$B10</f>
+        <f>[1]residential_demand!AW$11*$B10</f>
         <v>14202.666237092888</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B3">
-        <f>residential_demand!B$11*$B11</f>
+        <f>[1]residential_demand!B$11*$B11</f>
         <v>13012.448738286208</v>
       </c>
       <c r="C3">
-        <f>residential_demand!C$11*$B11</f>
+        <f>[1]residential_demand!C$11*$B11</f>
         <v>13012.448738286213</v>
       </c>
       <c r="D3">
-        <f>residential_demand!D$11*$B11</f>
+        <f>[1]residential_demand!D$11*$B11</f>
         <v>13012.448738286213</v>
       </c>
       <c r="E3">
-        <f>residential_demand!E$11*$B11</f>
+        <f>[1]residential_demand!E$11*$B11</f>
         <v>12989.23368808062</v>
       </c>
       <c r="F3">
-        <f>residential_demand!F$11*$B11</f>
+        <f>[1]residential_demand!F$11*$B11</f>
         <v>12989.23368808062</v>
       </c>
       <c r="G3">
-        <f>residential_demand!G$11*$B11</f>
+        <f>[1]residential_demand!G$11*$B11</f>
         <v>12989.23368808062</v>
       </c>
       <c r="H3">
-        <f>residential_demand!H$11*$B11</f>
+        <f>[1]residential_demand!H$11*$B11</f>
         <v>12959.712179716615</v>
       </c>
       <c r="I3">
-        <f>residential_demand!I$11*$B11</f>
+        <f>[1]residential_demand!I$11*$B11</f>
         <v>12959.712179716615</v>
       </c>
       <c r="J3">
-        <f>residential_demand!J$11*$B11</f>
+        <f>[1]residential_demand!J$11*$B11</f>
         <v>12959.712179716615</v>
       </c>
       <c r="K3">
-        <f>residential_demand!K$11*$B11</f>
+        <f>[1]residential_demand!K$11*$B11</f>
         <v>12956.054548051272</v>
       </c>
       <c r="L3">
-        <f>residential_demand!L$11*$B11</f>
+        <f>[1]residential_demand!L$11*$B11</f>
         <v>12956.054548051272</v>
       </c>
       <c r="M3">
-        <f>residential_demand!M$11*$B11</f>
+        <f>[1]residential_demand!M$11*$B11</f>
         <v>12956.054548051272</v>
       </c>
       <c r="N3">
-        <f>residential_demand!N$11*$B11</f>
+        <f>[1]residential_demand!N$11*$B11</f>
         <v>13976.072112262935</v>
       </c>
       <c r="O3">
-        <f>residential_demand!O$11*$B11</f>
+        <f>[1]residential_demand!O$11*$B11</f>
         <v>13976.072112262935</v>
       </c>
       <c r="P3">
-        <f>residential_demand!P$11*$B11</f>
+        <f>[1]residential_demand!P$11*$B11</f>
         <v>13976.072112262935</v>
       </c>
       <c r="Q3">
-        <f>residential_demand!Q$11*$B11</f>
+        <f>[1]residential_demand!Q$11*$B11</f>
         <v>13952.857062057343</v>
       </c>
       <c r="R3">
-        <f>residential_demand!R$11*$B11</f>
+        <f>[1]residential_demand!R$11*$B11</f>
         <v>13952.857062057343</v>
       </c>
       <c r="S3">
-        <f>residential_demand!S$11*$B11</f>
+        <f>[1]residential_demand!S$11*$B11</f>
         <v>13952.857062057343</v>
       </c>
       <c r="T3">
-        <f>residential_demand!T$11*$B11</f>
+        <f>[1]residential_demand!T$11*$B11</f>
         <v>13923.335553693336</v>
       </c>
       <c r="U3">
-        <f>residential_demand!U$11*$B11</f>
+        <f>[1]residential_demand!U$11*$B11</f>
         <v>13923.335553693336</v>
       </c>
       <c r="V3">
-        <f>residential_demand!V$11*$B11</f>
+        <f>[1]residential_demand!V$11*$B11</f>
         <v>13923.335553693336</v>
       </c>
       <c r="W3">
-        <f>residential_demand!W$11*$B11</f>
+        <f>[1]residential_demand!W$11*$B11</f>
         <v>13919.677922027993</v>
       </c>
       <c r="X3">
-        <f>residential_demand!X$11*$B11</f>
+        <f>[1]residential_demand!X$11*$B11</f>
         <v>13919.677922027993</v>
       </c>
       <c r="Y3">
-        <f>residential_demand!Y$11*$B11</f>
+        <f>[1]residential_demand!Y$11*$B11</f>
         <v>13919.677922027993</v>
       </c>
       <c r="Z3">
-        <f>residential_demand!Z$11*$B11</f>
+        <f>[1]residential_demand!Z$11*$B11</f>
         <v>14288.357367991108</v>
       </c>
       <c r="AA3">
-        <f>residential_demand!AA$11*$B11</f>
+        <f>[1]residential_demand!AA$11*$B11</f>
         <v>14288.357367991108</v>
       </c>
       <c r="AB3">
-        <f>residential_demand!AB$11*$B11</f>
+        <f>[1]residential_demand!AB$11*$B11</f>
         <v>14288.357367991108</v>
       </c>
       <c r="AC3">
-        <f>residential_demand!AC$11*$B11</f>
+        <f>[1]residential_demand!AC$11*$B11</f>
         <v>14265.142317785516</v>
       </c>
       <c r="AD3">
-        <f>residential_demand!AD$11*$B11</f>
+        <f>[1]residential_demand!AD$11*$B11</f>
         <v>14265.142317785516</v>
       </c>
       <c r="AE3">
-        <f>residential_demand!AE$11*$B11</f>
+        <f>[1]residential_demand!AE$11*$B11</f>
         <v>14265.142317785516</v>
       </c>
       <c r="AF3">
-        <f>residential_demand!AF$11*$B11</f>
+        <f>[1]residential_demand!AF$11*$B11</f>
         <v>14235.620809421509</v>
       </c>
       <c r="AG3">
-        <f>residential_demand!AG$11*$B11</f>
+        <f>[1]residential_demand!AG$11*$B11</f>
         <v>14235.620809421509</v>
       </c>
       <c r="AH3">
-        <f>residential_demand!AH$11*$B11</f>
+        <f>[1]residential_demand!AH$11*$B11</f>
         <v>14235.620809421509</v>
       </c>
       <c r="AI3">
-        <f>residential_demand!AI$11*$B11</f>
+        <f>[1]residential_demand!AI$11*$B11</f>
         <v>14231.963177756166</v>
       </c>
       <c r="AJ3">
-        <f>residential_demand!AJ$11*$B11</f>
+        <f>[1]residential_demand!AJ$11*$B11</f>
         <v>14231.963177756166</v>
       </c>
       <c r="AK3">
-        <f>residential_demand!AK$11*$B11</f>
+        <f>[1]residential_demand!AK$11*$B11</f>
         <v>14231.963177756166</v>
       </c>
       <c r="AL3">
-        <f>residential_demand!AL$11*$B11</f>
+        <f>[1]residential_demand!AL$11*$B11</f>
         <v>14259.060427327833</v>
       </c>
       <c r="AM3">
-        <f>residential_demand!AM$11*$B11</f>
+        <f>[1]residential_demand!AM$11*$B11</f>
         <v>14259.060427327833</v>
       </c>
       <c r="AN3">
-        <f>residential_demand!AN$11*$B11</f>
+        <f>[1]residential_demand!AN$11*$B11</f>
         <v>14259.060427327833</v>
       </c>
       <c r="AO3">
-        <f>residential_demand!AO$11*$B11</f>
+        <f>[1]residential_demand!AO$11*$B11</f>
         <v>14235.845377122239</v>
       </c>
       <c r="AP3">
-        <f>residential_demand!AP$11*$B11</f>
+        <f>[1]residential_demand!AP$11*$B11</f>
         <v>14235.845377122239</v>
       </c>
       <c r="AQ3">
-        <f>residential_demand!AQ$11*$B11</f>
+        <f>[1]residential_demand!AQ$11*$B11</f>
         <v>14235.845377122239</v>
       </c>
       <c r="AR3">
-        <f>residential_demand!AR$11*$B11</f>
+        <f>[1]residential_demand!AR$11*$B11</f>
         <v>14206.323868758234</v>
       </c>
       <c r="AS3">
-        <f>residential_demand!AS$11*$B11</f>
+        <f>[1]residential_demand!AS$11*$B11</f>
         <v>14206.323868758234</v>
       </c>
       <c r="AT3">
-        <f>residential_demand!AT$11*$B11</f>
+        <f>[1]residential_demand!AT$11*$B11</f>
         <v>14206.323868758234</v>
       </c>
       <c r="AU3">
-        <f>residential_demand!AU$11*$B11</f>
+        <f>[1]residential_demand!AU$11*$B11</f>
         <v>14202.666237092888</v>
       </c>
       <c r="AV3">
-        <f>residential_demand!AV$11*$B11</f>
+        <f>[1]residential_demand!AV$11*$B11</f>
         <v>14202.666237092888</v>
       </c>
       <c r="AW3">
-        <f>residential_demand!AW$11*$B11</f>
+        <f>[1]residential_demand!AW$11*$B11</f>
         <v>14202.666237092888</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B4">
-        <f>residential_demand!B$11*$B12</f>
+        <f>[1]residential_demand!B$11*$B12</f>
         <v>2788.3818724899015</v>
       </c>
       <c r="C4">
-        <f>residential_demand!C$11*$B12</f>
+        <f>[1]residential_demand!C$11*$B12</f>
         <v>2788.3818724899029</v>
       </c>
       <c r="D4">
-        <f>residential_demand!D$11*$B12</f>
+        <f>[1]residential_demand!D$11*$B12</f>
         <v>2788.3818724899029</v>
       </c>
       <c r="E4">
-        <f>residential_demand!E$11*$B12</f>
+        <f>[1]residential_demand!E$11*$B12</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="F4">
-        <f>residential_demand!F$11*$B12</f>
+        <f>[1]residential_demand!F$11*$B12</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="G4">
-        <f>residential_demand!G$11*$B12</f>
+        <f>[1]residential_demand!G$11*$B12</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="H4">
-        <f>residential_demand!H$11*$B12</f>
+        <f>[1]residential_demand!H$11*$B12</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="I4">
-        <f>residential_demand!I$11*$B12</f>
+        <f>[1]residential_demand!I$11*$B12</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="J4">
-        <f>residential_demand!J$11*$B12</f>
+        <f>[1]residential_demand!J$11*$B12</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="K4">
-        <f>residential_demand!K$11*$B12</f>
+        <f>[1]residential_demand!K$11*$B12</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="L4">
-        <f>residential_demand!L$11*$B12</f>
+        <f>[1]residential_demand!L$11*$B12</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="M4">
-        <f>residential_demand!M$11*$B12</f>
+        <f>[1]residential_demand!M$11*$B12</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="N4">
-        <f>residential_demand!N$11*$B12</f>
+        <f>[1]residential_demand!N$11*$B12</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="O4">
-        <f>residential_demand!O$11*$B12</f>
+        <f>[1]residential_demand!O$11*$B12</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="P4">
-        <f>residential_demand!P$11*$B12</f>
+        <f>[1]residential_demand!P$11*$B12</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="Q4">
-        <f>residential_demand!Q$11*$B12</f>
+        <f>[1]residential_demand!Q$11*$B12</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="R4">
-        <f>residential_demand!R$11*$B12</f>
+        <f>[1]residential_demand!R$11*$B12</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="S4">
-        <f>residential_demand!S$11*$B12</f>
+        <f>[1]residential_demand!S$11*$B12</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="T4">
-        <f>residential_demand!T$11*$B12</f>
+        <f>[1]residential_demand!T$11*$B12</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="U4">
-        <f>residential_demand!U$11*$B12</f>
+        <f>[1]residential_demand!U$11*$B12</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="V4">
-        <f>residential_demand!V$11*$B12</f>
+        <f>[1]residential_demand!V$11*$B12</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="W4">
-        <f>residential_demand!W$11*$B12</f>
+        <f>[1]residential_demand!W$11*$B12</f>
         <v>2982.788126148856</v>
       </c>
       <c r="X4">
-        <f>residential_demand!X$11*$B12</f>
+        <f>[1]residential_demand!X$11*$B12</f>
         <v>2982.788126148856</v>
       </c>
       <c r="Y4">
-        <f>residential_demand!Y$11*$B12</f>
+        <f>[1]residential_demand!Y$11*$B12</f>
         <v>2982.788126148856</v>
       </c>
       <c r="Z4">
-        <f>residential_demand!Z$11*$B12</f>
+        <f>[1]residential_demand!Z$11*$B12</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AA4">
-        <f>residential_demand!AA$11*$B12</f>
+        <f>[1]residential_demand!AA$11*$B12</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AB4">
-        <f>residential_demand!AB$11*$B12</f>
+        <f>[1]residential_demand!AB$11*$B12</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AC4">
-        <f>residential_demand!AC$11*$B12</f>
+        <f>[1]residential_demand!AC$11*$B12</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AD4">
-        <f>residential_demand!AD$11*$B12</f>
+        <f>[1]residential_demand!AD$11*$B12</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AE4">
-        <f>residential_demand!AE$11*$B12</f>
+        <f>[1]residential_demand!AE$11*$B12</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AF4">
-        <f>residential_demand!AF$11*$B12</f>
+        <f>[1]residential_demand!AF$11*$B12</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AG4">
-        <f>residential_demand!AG$11*$B12</f>
+        <f>[1]residential_demand!AG$11*$B12</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AH4">
-        <f>residential_demand!AH$11*$B12</f>
+        <f>[1]residential_demand!AH$11*$B12</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AI4">
-        <f>residential_demand!AI$11*$B12</f>
+        <f>[1]residential_demand!AI$11*$B12</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AJ4">
-        <f>residential_demand!AJ$11*$B12</f>
+        <f>[1]residential_demand!AJ$11*$B12</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AK4">
-        <f>residential_demand!AK$11*$B12</f>
+        <f>[1]residential_demand!AK$11*$B12</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AL4">
-        <f>residential_demand!AL$11*$B12</f>
+        <f>[1]residential_demand!AL$11*$B12</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AM4">
-        <f>residential_demand!AM$11*$B12</f>
+        <f>[1]residential_demand!AM$11*$B12</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AN4">
-        <f>residential_demand!AN$11*$B12</f>
+        <f>[1]residential_demand!AN$11*$B12</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AO4">
-        <f>residential_demand!AO$11*$B12</f>
+        <f>[1]residential_demand!AO$11*$B12</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AP4">
-        <f>residential_demand!AP$11*$B12</f>
+        <f>[1]residential_demand!AP$11*$B12</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AQ4">
-        <f>residential_demand!AQ$11*$B12</f>
+        <f>[1]residential_demand!AQ$11*$B12</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AR4">
-        <f>residential_demand!AR$11*$B12</f>
+        <f>[1]residential_demand!AR$11*$B12</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AS4">
-        <f>residential_demand!AS$11*$B12</f>
+        <f>[1]residential_demand!AS$11*$B12</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AT4">
-        <f>residential_demand!AT$11*$B12</f>
+        <f>[1]residential_demand!AT$11*$B12</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AU4">
-        <f>residential_demand!AU$11*$B12</f>
+        <f>[1]residential_demand!AU$11*$B12</f>
         <v>3043.4284793770476</v>
       </c>
       <c r="AV4">
-        <f>residential_demand!AV$11*$B12</f>
+        <f>[1]residential_demand!AV$11*$B12</f>
         <v>3043.4284793770476</v>
       </c>
       <c r="AW4">
-        <f>residential_demand!AW$11*$B12</f>
+        <f>[1]residential_demand!AW$11*$B12</f>
         <v>3043.4284793770476</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B5">
-        <f>residential_demand!B$11*$B13</f>
+        <f>[1]residential_demand!B$11*$B13</f>
         <v>2788.3818724899015</v>
       </c>
       <c r="C5">
-        <f>residential_demand!C$11*$B13</f>
+        <f>[1]residential_demand!C$11*$B13</f>
         <v>2788.3818724899029</v>
       </c>
       <c r="D5">
-        <f>residential_demand!D$11*$B13</f>
+        <f>[1]residential_demand!D$11*$B13</f>
         <v>2788.3818724899029</v>
       </c>
       <c r="E5">
-        <f>residential_demand!E$11*$B13</f>
+        <f>[1]residential_demand!E$11*$B13</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="F5">
-        <f>residential_demand!F$11*$B13</f>
+        <f>[1]residential_demand!F$11*$B13</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="G5">
-        <f>residential_demand!G$11*$B13</f>
+        <f>[1]residential_demand!G$11*$B13</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="H5">
-        <f>residential_demand!H$11*$B13</f>
+        <f>[1]residential_demand!H$11*$B13</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="I5">
-        <f>residential_demand!I$11*$B13</f>
+        <f>[1]residential_demand!I$11*$B13</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="J5">
-        <f>residential_demand!J$11*$B13</f>
+        <f>[1]residential_demand!J$11*$B13</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="K5">
-        <f>residential_demand!K$11*$B13</f>
+        <f>[1]residential_demand!K$11*$B13</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="L5">
-        <f>residential_demand!L$11*$B13</f>
+        <f>[1]residential_demand!L$11*$B13</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="M5">
-        <f>residential_demand!M$11*$B13</f>
+        <f>[1]residential_demand!M$11*$B13</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="N5">
-        <f>residential_demand!N$11*$B13</f>
+        <f>[1]residential_demand!N$11*$B13</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="O5">
-        <f>residential_demand!O$11*$B13</f>
+        <f>[1]residential_demand!O$11*$B13</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="P5">
-        <f>residential_demand!P$11*$B13</f>
+        <f>[1]residential_demand!P$11*$B13</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="Q5">
-        <f>residential_demand!Q$11*$B13</f>
+        <f>[1]residential_demand!Q$11*$B13</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="R5">
-        <f>residential_demand!R$11*$B13</f>
+        <f>[1]residential_demand!R$11*$B13</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="S5">
-        <f>residential_demand!S$11*$B13</f>
+        <f>[1]residential_demand!S$11*$B13</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="T5">
-        <f>residential_demand!T$11*$B13</f>
+        <f>[1]residential_demand!T$11*$B13</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="U5">
-        <f>residential_demand!U$11*$B13</f>
+        <f>[1]residential_demand!U$11*$B13</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="V5">
-        <f>residential_demand!V$11*$B13</f>
+        <f>[1]residential_demand!V$11*$B13</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="W5">
-        <f>residential_demand!W$11*$B13</f>
+        <f>[1]residential_demand!W$11*$B13</f>
         <v>2982.788126148856</v>
       </c>
       <c r="X5">
-        <f>residential_demand!X$11*$B13</f>
+        <f>[1]residential_demand!X$11*$B13</f>
         <v>2982.788126148856</v>
       </c>
       <c r="Y5">
-        <f>residential_demand!Y$11*$B13</f>
+        <f>[1]residential_demand!Y$11*$B13</f>
         <v>2982.788126148856</v>
       </c>
       <c r="Z5">
-        <f>residential_demand!Z$11*$B13</f>
+        <f>[1]residential_demand!Z$11*$B13</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AA5">
-        <f>residential_demand!AA$11*$B13</f>
+        <f>[1]residential_demand!AA$11*$B13</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AB5">
-        <f>residential_demand!AB$11*$B13</f>
+        <f>[1]residential_demand!AB$11*$B13</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AC5">
-        <f>residential_demand!AC$11*$B13</f>
+        <f>[1]residential_demand!AC$11*$B13</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AD5">
-        <f>residential_demand!AD$11*$B13</f>
+        <f>[1]residential_demand!AD$11*$B13</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AE5">
-        <f>residential_demand!AE$11*$B13</f>
+        <f>[1]residential_demand!AE$11*$B13</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AF5">
-        <f>residential_demand!AF$11*$B13</f>
+        <f>[1]residential_demand!AF$11*$B13</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AG5">
-        <f>residential_demand!AG$11*$B13</f>
+        <f>[1]residential_demand!AG$11*$B13</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AH5">
-        <f>residential_demand!AH$11*$B13</f>
+        <f>[1]residential_demand!AH$11*$B13</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AI5">
-        <f>residential_demand!AI$11*$B13</f>
+        <f>[1]residential_demand!AI$11*$B13</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AJ5">
-        <f>residential_demand!AJ$11*$B13</f>
+        <f>[1]residential_demand!AJ$11*$B13</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AK5">
-        <f>residential_demand!AK$11*$B13</f>
+        <f>[1]residential_demand!AK$11*$B13</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AL5">
-        <f>residential_demand!AL$11*$B13</f>
+        <f>[1]residential_demand!AL$11*$B13</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AM5">
-        <f>residential_demand!AM$11*$B13</f>
+        <f>[1]residential_demand!AM$11*$B13</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AN5">
-        <f>residential_demand!AN$11*$B13</f>
+        <f>[1]residential_demand!AN$11*$B13</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AO5">
-        <f>residential_demand!AO$11*$B13</f>
+        <f>[1]residential_demand!AO$11*$B13</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AP5">
-        <f>residential_demand!AP$11*$B13</f>
+        <f>[1]residential_demand!AP$11*$B13</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AQ5">
-        <f>residential_demand!AQ$11*$B13</f>
+        <f>[1]residential_demand!AQ$11*$B13</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AR5">
-        <f>residential_demand!AR$11*$B13</f>
+        <f>[1]residential_demand!AR$11*$B13</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AS5">
-        <f>residential_demand!AS$11*$B13</f>
+        <f>[1]residential_demand!AS$11*$B13</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AT5">
-        <f>residential_demand!AT$11*$B13</f>
+        <f>[1]residential_demand!AT$11*$B13</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AU5">
-        <f>residential_demand!AU$11*$B13</f>
+        <f>[1]residential_demand!AU$11*$B13</f>
         <v>3043.4284793770476</v>
       </c>
       <c r="AV5">
-        <f>residential_demand!AV$11*$B13</f>
+        <f>[1]residential_demand!AV$11*$B13</f>
         <v>3043.4284793770476</v>
       </c>
       <c r="AW5">
-        <f>residential_demand!AW$11*$B13</f>
+        <f>[1]residential_demand!AW$11*$B13</f>
         <v>3043.4284793770476</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B6">
-        <f>residential_demand!B$11*$B14</f>
+        <f>[1]residential_demand!B$11*$B14</f>
         <v>2788.3818724899015</v>
       </c>
       <c r="C6">
-        <f>residential_demand!C$11*$B14</f>
+        <f>[1]residential_demand!C$11*$B14</f>
         <v>2788.3818724899029</v>
       </c>
       <c r="D6">
-        <f>residential_demand!D$11*$B14</f>
+        <f>[1]residential_demand!D$11*$B14</f>
         <v>2788.3818724899029</v>
       </c>
       <c r="E6">
-        <f>residential_demand!E$11*$B14</f>
+        <f>[1]residential_demand!E$11*$B14</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="F6">
-        <f>residential_demand!F$11*$B14</f>
+        <f>[1]residential_demand!F$11*$B14</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="G6">
-        <f>residential_demand!G$11*$B14</f>
+        <f>[1]residential_demand!G$11*$B14</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="H6">
-        <f>residential_demand!H$11*$B14</f>
+        <f>[1]residential_demand!H$11*$B14</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="I6">
-        <f>residential_demand!I$11*$B14</f>
+        <f>[1]residential_demand!I$11*$B14</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="J6">
-        <f>residential_demand!J$11*$B14</f>
+        <f>[1]residential_demand!J$11*$B14</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="K6">
-        <f>residential_demand!K$11*$B14</f>
+        <f>[1]residential_demand!K$11*$B14</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="L6">
-        <f>residential_demand!L$11*$B14</f>
+        <f>[1]residential_demand!L$11*$B14</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="M6">
-        <f>residential_demand!M$11*$B14</f>
+        <f>[1]residential_demand!M$11*$B14</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="N6">
-        <f>residential_demand!N$11*$B14</f>
+        <f>[1]residential_demand!N$11*$B14</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="O6">
-        <f>residential_demand!O$11*$B14</f>
+        <f>[1]residential_demand!O$11*$B14</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="P6">
-        <f>residential_demand!P$11*$B14</f>
+        <f>[1]residential_demand!P$11*$B14</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="Q6">
-        <f>residential_demand!Q$11*$B14</f>
+        <f>[1]residential_demand!Q$11*$B14</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="R6">
-        <f>residential_demand!R$11*$B14</f>
+        <f>[1]residential_demand!R$11*$B14</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="S6">
-        <f>residential_demand!S$11*$B14</f>
+        <f>[1]residential_demand!S$11*$B14</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="T6">
-        <f>residential_demand!T$11*$B14</f>
+        <f>[1]residential_demand!T$11*$B14</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="U6">
-        <f>residential_demand!U$11*$B14</f>
+        <f>[1]residential_demand!U$11*$B14</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="V6">
-        <f>residential_demand!V$11*$B14</f>
+        <f>[1]residential_demand!V$11*$B14</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="W6">
-        <f>residential_demand!W$11*$B14</f>
+        <f>[1]residential_demand!W$11*$B14</f>
         <v>2982.788126148856</v>
       </c>
       <c r="X6">
-        <f>residential_demand!X$11*$B14</f>
+        <f>[1]residential_demand!X$11*$B14</f>
         <v>2982.788126148856</v>
       </c>
       <c r="Y6">
-        <f>residential_demand!Y$11*$B14</f>
+        <f>[1]residential_demand!Y$11*$B14</f>
         <v>2982.788126148856</v>
       </c>
       <c r="Z6">
-        <f>residential_demand!Z$11*$B14</f>
+        <f>[1]residential_demand!Z$11*$B14</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AA6">
-        <f>residential_demand!AA$11*$B14</f>
+        <f>[1]residential_demand!AA$11*$B14</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AB6">
-        <f>residential_demand!AB$11*$B14</f>
+        <f>[1]residential_demand!AB$11*$B14</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AC6">
-        <f>residential_demand!AC$11*$B14</f>
+        <f>[1]residential_demand!AC$11*$B14</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AD6">
-        <f>residential_demand!AD$11*$B14</f>
+        <f>[1]residential_demand!AD$11*$B14</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AE6">
-        <f>residential_demand!AE$11*$B14</f>
+        <f>[1]residential_demand!AE$11*$B14</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AF6">
-        <f>residential_demand!AF$11*$B14</f>
+        <f>[1]residential_demand!AF$11*$B14</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AG6">
-        <f>residential_demand!AG$11*$B14</f>
+        <f>[1]residential_demand!AG$11*$B14</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AH6">
-        <f>residential_demand!AH$11*$B14</f>
+        <f>[1]residential_demand!AH$11*$B14</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AI6">
-        <f>residential_demand!AI$11*$B14</f>
+        <f>[1]residential_demand!AI$11*$B14</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AJ6">
-        <f>residential_demand!AJ$11*$B14</f>
+        <f>[1]residential_demand!AJ$11*$B14</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AK6">
-        <f>residential_demand!AK$11*$B14</f>
+        <f>[1]residential_demand!AK$11*$B14</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AL6">
-        <f>residential_demand!AL$11*$B14</f>
+        <f>[1]residential_demand!AL$11*$B14</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AM6">
-        <f>residential_demand!AM$11*$B14</f>
+        <f>[1]residential_demand!AM$11*$B14</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AN6">
-        <f>residential_demand!AN$11*$B14</f>
+        <f>[1]residential_demand!AN$11*$B14</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AO6">
-        <f>residential_demand!AO$11*$B14</f>
+        <f>[1]residential_demand!AO$11*$B14</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AP6">
-        <f>residential_demand!AP$11*$B14</f>
+        <f>[1]residential_demand!AP$11*$B14</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AQ6">
-        <f>residential_demand!AQ$11*$B14</f>
+        <f>[1]residential_demand!AQ$11*$B14</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AR6">
-        <f>residential_demand!AR$11*$B14</f>
+        <f>[1]residential_demand!AR$11*$B14</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AS6">
-        <f>residential_demand!AS$11*$B14</f>
+        <f>[1]residential_demand!AS$11*$B14</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AT6">
-        <f>residential_demand!AT$11*$B14</f>
+        <f>[1]residential_demand!AT$11*$B14</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AU6">
-        <f>residential_demand!AU$11*$B14</f>
+        <f>[1]residential_demand!AU$11*$B14</f>
         <v>3043.4284793770476</v>
       </c>
       <c r="AV6">
-        <f>residential_demand!AV$11*$B14</f>
+        <f>[1]residential_demand!AV$11*$B14</f>
         <v>3043.4284793770476</v>
       </c>
       <c r="AW6">
-        <f>residential_demand!AW$11*$B14</f>
+        <f>[1]residential_demand!AW$11*$B14</f>
         <v>3043.4284793770476</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B7">
-        <f>residential_demand!B$11*$B15</f>
+        <f>[1]residential_demand!B$11*$B15</f>
         <v>2788.3818724899015</v>
       </c>
       <c r="C7">
-        <f>residential_demand!C$11*$B15</f>
+        <f>[1]residential_demand!C$11*$B15</f>
         <v>2788.3818724899029</v>
       </c>
       <c r="D7">
-        <f>residential_demand!D$11*$B15</f>
+        <f>[1]residential_demand!D$11*$B15</f>
         <v>2788.3818724899029</v>
       </c>
       <c r="E7">
-        <f>residential_demand!E$11*$B15</f>
+        <f>[1]residential_demand!E$11*$B15</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="F7">
-        <f>residential_demand!F$11*$B15</f>
+        <f>[1]residential_demand!F$11*$B15</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="G7">
-        <f>residential_demand!G$11*$B15</f>
+        <f>[1]residential_demand!G$11*$B15</f>
         <v>2783.4072188744185</v>
       </c>
       <c r="H7">
-        <f>residential_demand!H$11*$B15</f>
+        <f>[1]residential_demand!H$11*$B15</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="I7">
-        <f>residential_demand!I$11*$B15</f>
+        <f>[1]residential_demand!I$11*$B15</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="J7">
-        <f>residential_demand!J$11*$B15</f>
+        <f>[1]residential_demand!J$11*$B15</f>
         <v>2777.0811813678461</v>
       </c>
       <c r="K7">
-        <f>residential_demand!K$11*$B15</f>
+        <f>[1]residential_demand!K$11*$B15</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="L7">
-        <f>residential_demand!L$11*$B15</f>
+        <f>[1]residential_demand!L$11*$B15</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="M7">
-        <f>residential_demand!M$11*$B15</f>
+        <f>[1]residential_demand!M$11*$B15</f>
         <v>2776.2974031538438</v>
       </c>
       <c r="N7">
-        <f>residential_demand!N$11*$B15</f>
+        <f>[1]residential_demand!N$11*$B15</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="O7">
-        <f>residential_demand!O$11*$B15</f>
+        <f>[1]residential_demand!O$11*$B15</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="P7">
-        <f>residential_demand!P$11*$B15</f>
+        <f>[1]residential_demand!P$11*$B15</f>
         <v>2994.8725954849147</v>
       </c>
       <c r="Q7">
-        <f>residential_demand!Q$11*$B15</f>
+        <f>[1]residential_demand!Q$11*$B15</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="R7">
-        <f>residential_demand!R$11*$B15</f>
+        <f>[1]residential_demand!R$11*$B15</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="S7">
-        <f>residential_demand!S$11*$B15</f>
+        <f>[1]residential_demand!S$11*$B15</f>
         <v>2989.8979418694307</v>
       </c>
       <c r="T7">
-        <f>residential_demand!T$11*$B15</f>
+        <f>[1]residential_demand!T$11*$B15</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="U7">
-        <f>residential_demand!U$11*$B15</f>
+        <f>[1]residential_demand!U$11*$B15</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="V7">
-        <f>residential_demand!V$11*$B15</f>
+        <f>[1]residential_demand!V$11*$B15</f>
         <v>2983.5719043628578</v>
       </c>
       <c r="W7">
-        <f>residential_demand!W$11*$B15</f>
+        <f>[1]residential_demand!W$11*$B15</f>
         <v>2982.788126148856</v>
       </c>
       <c r="X7">
-        <f>residential_demand!X$11*$B15</f>
+        <f>[1]residential_demand!X$11*$B15</f>
         <v>2982.788126148856</v>
       </c>
       <c r="Y7">
-        <f>residential_demand!Y$11*$B15</f>
+        <f>[1]residential_demand!Y$11*$B15</f>
         <v>2982.788126148856</v>
       </c>
       <c r="Z7">
-        <f>residential_demand!Z$11*$B15</f>
+        <f>[1]residential_demand!Z$11*$B15</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AA7">
-        <f>residential_demand!AA$11*$B15</f>
+        <f>[1]residential_demand!AA$11*$B15</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AB7">
-        <f>residential_demand!AB$11*$B15</f>
+        <f>[1]residential_demand!AB$11*$B15</f>
         <v>3061.7908645695229</v>
       </c>
       <c r="AC7">
-        <f>residential_demand!AC$11*$B15</f>
+        <f>[1]residential_demand!AC$11*$B15</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AD7">
-        <f>residential_demand!AD$11*$B15</f>
+        <f>[1]residential_demand!AD$11*$B15</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AE7">
-        <f>residential_demand!AE$11*$B15</f>
+        <f>[1]residential_demand!AE$11*$B15</f>
         <v>3056.8162109540394</v>
       </c>
       <c r="AF7">
-        <f>residential_demand!AF$11*$B15</f>
+        <f>[1]residential_demand!AF$11*$B15</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AG7">
-        <f>residential_demand!AG$11*$B15</f>
+        <f>[1]residential_demand!AG$11*$B15</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AH7">
-        <f>residential_demand!AH$11*$B15</f>
+        <f>[1]residential_demand!AH$11*$B15</f>
         <v>3050.4901734474665</v>
       </c>
       <c r="AI7">
-        <f>residential_demand!AI$11*$B15</f>
+        <f>[1]residential_demand!AI$11*$B15</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AJ7">
-        <f>residential_demand!AJ$11*$B15</f>
+        <f>[1]residential_demand!AJ$11*$B15</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AK7">
-        <f>residential_demand!AK$11*$B15</f>
+        <f>[1]residential_demand!AK$11*$B15</f>
         <v>3049.7063952334643</v>
       </c>
       <c r="AL7">
-        <f>residential_demand!AL$11*$B15</f>
+        <f>[1]residential_demand!AL$11*$B15</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AM7">
-        <f>residential_demand!AM$11*$B15</f>
+        <f>[1]residential_demand!AM$11*$B15</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AN7">
-        <f>residential_demand!AN$11*$B15</f>
+        <f>[1]residential_demand!AN$11*$B15</f>
         <v>3055.5129487131071</v>
       </c>
       <c r="AO7">
-        <f>residential_demand!AO$11*$B15</f>
+        <f>[1]residential_demand!AO$11*$B15</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AP7">
-        <f>residential_demand!AP$11*$B15</f>
+        <f>[1]residential_demand!AP$11*$B15</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AQ7">
-        <f>residential_demand!AQ$11*$B15</f>
+        <f>[1]residential_demand!AQ$11*$B15</f>
         <v>3050.5382950976227</v>
       </c>
       <c r="AR7">
-        <f>residential_demand!AR$11*$B15</f>
+        <f>[1]residential_demand!AR$11*$B15</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AS7">
-        <f>residential_demand!AS$11*$B15</f>
+        <f>[1]residential_demand!AS$11*$B15</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AT7">
-        <f>residential_demand!AT$11*$B15</f>
+        <f>[1]residential_demand!AT$11*$B15</f>
         <v>3044.2122575910503</v>
       </c>
       <c r="AU7">
-        <f>residential_demand!AU$11*$B15</f>
+        <f>[1]residential_demand!AU$11*$B15</f>
         <v>3043.4284793770476</v>
       </c>
       <c r="AV7">
-        <f>residential_demand!AV$11*$B15</f>
+        <f>[1]residential_demand!AV$11*$B15</f>
         <v>3043.4284793770476</v>
       </c>
       <c r="AW7">
-        <f>residential_demand!AW$11*$B15</f>
+        <f>[1]residential_demand!AW$11*$B15</f>
         <v>3043.4284793770476</v>
       </c>
     </row>
@@ -4805,200 +4807,198 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>279</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="H2">
-        <v>202</v>
+        <v>372</v>
       </c>
       <c r="I2">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="J2">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="K2">
-        <v>235</v>
+        <v>387</v>
       </c>
       <c r="L2">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="M2">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -5111,43 +5111,43 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>262</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="H3">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="I3">
-        <v>153</v>
+        <v>256</v>
       </c>
       <c r="J3">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="K3">
-        <v>230</v>
+        <v>374</v>
       </c>
       <c r="L3">
-        <v>167</v>
+        <v>262</v>
       </c>
       <c r="M3">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -5260,195 +5260,195 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F4">
+        <v>131</v>
+      </c>
+      <c r="G4">
+        <v>133</v>
+      </c>
+      <c r="H4">
+        <v>115</v>
+      </c>
+      <c r="I4">
+        <v>131</v>
+      </c>
+      <c r="J4">
+        <v>134</v>
+      </c>
+      <c r="K4">
+        <v>115</v>
+      </c>
+      <c r="L4">
+        <v>132</v>
+      </c>
+      <c r="M4">
+        <v>134</v>
+      </c>
+      <c r="N4">
+        <v>110</v>
+      </c>
+      <c r="O4">
         <v>129</v>
       </c>
-      <c r="G4">
-        <v>130</v>
-      </c>
-      <c r="H4">
+      <c r="P4">
+        <v>131</v>
+      </c>
+      <c r="Q4">
+        <v>114</v>
+      </c>
+      <c r="R4">
+        <v>131</v>
+      </c>
+      <c r="S4">
+        <v>133</v>
+      </c>
+      <c r="T4">
+        <v>115</v>
+      </c>
+      <c r="U4">
+        <v>131</v>
+      </c>
+      <c r="V4">
+        <v>134</v>
+      </c>
+      <c r="W4">
+        <v>115</v>
+      </c>
+      <c r="X4">
+        <v>132</v>
+      </c>
+      <c r="Y4">
+        <v>134</v>
+      </c>
+      <c r="Z4">
         <v>110</v>
       </c>
-      <c r="I4">
+      <c r="AA4">
         <v>129</v>
       </c>
-      <c r="J4">
+      <c r="AB4">
+        <v>131</v>
+      </c>
+      <c r="AC4">
+        <v>113</v>
+      </c>
+      <c r="AD4">
+        <v>131</v>
+      </c>
+      <c r="AE4">
+        <v>133</v>
+      </c>
+      <c r="AF4">
+        <v>115</v>
+      </c>
+      <c r="AG4">
+        <v>131</v>
+      </c>
+      <c r="AH4">
+        <v>134</v>
+      </c>
+      <c r="AI4">
+        <v>115</v>
+      </c>
+      <c r="AJ4">
         <v>132</v>
       </c>
-      <c r="K4">
-        <v>112</v>
-      </c>
-      <c r="L4">
-        <v>130</v>
-      </c>
-      <c r="M4">
+      <c r="AK4">
+        <v>134</v>
+      </c>
+      <c r="AL4">
+        <v>110</v>
+      </c>
+      <c r="AM4">
+        <v>129</v>
+      </c>
+      <c r="AN4">
+        <v>131</v>
+      </c>
+      <c r="AO4">
+        <v>113</v>
+      </c>
+      <c r="AP4">
+        <v>131</v>
+      </c>
+      <c r="AQ4">
+        <v>133</v>
+      </c>
+      <c r="AR4">
+        <v>115</v>
+      </c>
+      <c r="AS4">
+        <v>131</v>
+      </c>
+      <c r="AT4">
+        <v>134</v>
+      </c>
+      <c r="AU4">
+        <v>115</v>
+      </c>
+      <c r="AV4">
         <v>132</v>
       </c>
-      <c r="N4">
-        <v>108</v>
-      </c>
-      <c r="O4">
-        <v>127</v>
-      </c>
-      <c r="P4">
-        <v>128</v>
-      </c>
-      <c r="Q4">
-        <v>109</v>
-      </c>
-      <c r="R4">
-        <v>129</v>
-      </c>
-      <c r="S4">
-        <v>130</v>
-      </c>
-      <c r="T4">
-        <v>110</v>
-      </c>
-      <c r="U4">
-        <v>129</v>
-      </c>
-      <c r="V4">
-        <v>132</v>
-      </c>
-      <c r="W4">
-        <v>111</v>
-      </c>
-      <c r="X4">
-        <v>130</v>
-      </c>
-      <c r="Y4">
-        <v>132</v>
-      </c>
-      <c r="Z4">
-        <v>108</v>
-      </c>
-      <c r="AA4">
-        <v>127</v>
-      </c>
-      <c r="AB4">
-        <v>128</v>
-      </c>
-      <c r="AC4">
-        <v>109</v>
-      </c>
-      <c r="AD4">
-        <v>129</v>
-      </c>
-      <c r="AE4">
-        <v>130</v>
-      </c>
-      <c r="AF4">
-        <v>110</v>
-      </c>
-      <c r="AG4">
-        <v>129</v>
-      </c>
-      <c r="AH4">
-        <v>132</v>
-      </c>
-      <c r="AI4">
-        <v>111</v>
-      </c>
-      <c r="AJ4">
-        <v>130</v>
-      </c>
-      <c r="AK4">
-        <v>132</v>
-      </c>
-      <c r="AL4">
-        <v>108</v>
-      </c>
-      <c r="AM4">
-        <v>127</v>
-      </c>
-      <c r="AN4">
-        <v>128</v>
-      </c>
-      <c r="AO4">
-        <v>109</v>
-      </c>
-      <c r="AP4">
-        <v>129</v>
-      </c>
-      <c r="AQ4">
-        <v>130</v>
-      </c>
-      <c r="AR4">
-        <v>110</v>
-      </c>
-      <c r="AS4">
-        <v>129</v>
-      </c>
-      <c r="AT4">
-        <v>132</v>
-      </c>
-      <c r="AU4">
-        <v>111</v>
-      </c>
-      <c r="AV4">
-        <v>130</v>
-      </c>
       <c r="AW4">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="I5">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="J5">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="N5">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="R5">
         <v>1</v>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="T5">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -5475,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="W5">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="X5">
         <v>1</v>
@@ -5558,308 +5558,308 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F6">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G6">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I6">
+        <v>70</v>
+      </c>
+      <c r="J6">
+        <v>61</v>
+      </c>
+      <c r="K6">
+        <v>125</v>
+      </c>
+      <c r="L6">
+        <v>70</v>
+      </c>
+      <c r="M6">
         <v>62</v>
       </c>
-      <c r="J6">
-        <v>55</v>
-      </c>
-      <c r="K6">
-        <v>116</v>
-      </c>
-      <c r="L6">
-        <v>62</v>
-      </c>
-      <c r="M6">
-        <v>55</v>
-      </c>
       <c r="N6">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O6">
         <v>46</v>
       </c>
       <c r="P6">
+        <v>46</v>
+      </c>
+      <c r="Q6">
+        <v>72</v>
+      </c>
+      <c r="R6">
+        <v>48</v>
+      </c>
+      <c r="S6">
+        <v>47</v>
+      </c>
+      <c r="T6">
+        <v>76</v>
+      </c>
+      <c r="U6">
+        <v>49</v>
+      </c>
+      <c r="V6">
+        <v>47</v>
+      </c>
+      <c r="W6">
+        <v>77</v>
+      </c>
+      <c r="X6">
+        <v>49</v>
+      </c>
+      <c r="Y6">
+        <v>47</v>
+      </c>
+      <c r="Z6">
+        <v>56</v>
+      </c>
+      <c r="AA6">
+        <v>37</v>
+      </c>
+      <c r="AB6">
+        <v>37</v>
+      </c>
+      <c r="AC6">
+        <v>58</v>
+      </c>
+      <c r="AD6">
+        <v>42</v>
+      </c>
+      <c r="AE6">
+        <v>38</v>
+      </c>
+      <c r="AF6">
+        <v>60</v>
+      </c>
+      <c r="AG6">
+        <v>42</v>
+      </c>
+      <c r="AH6">
+        <v>42</v>
+      </c>
+      <c r="AI6">
+        <v>61</v>
+      </c>
+      <c r="AJ6">
         <v>43</v>
       </c>
-      <c r="Q6">
-        <v>65</v>
-      </c>
-      <c r="R6">
-        <v>46</v>
-      </c>
-      <c r="S6">
-        <v>46</v>
-      </c>
-      <c r="T6">
-        <v>71</v>
-      </c>
-      <c r="U6">
-        <v>46</v>
-      </c>
-      <c r="V6">
-        <v>46</v>
-      </c>
-      <c r="W6">
-        <v>72</v>
-      </c>
-      <c r="X6">
-        <v>47</v>
-      </c>
-      <c r="Y6">
-        <v>46</v>
-      </c>
-      <c r="Z6">
-        <v>54</v>
-      </c>
-      <c r="AA6">
-        <v>36</v>
-      </c>
-      <c r="AB6">
-        <v>36</v>
-      </c>
-      <c r="AC6">
-        <v>55</v>
-      </c>
-      <c r="AD6">
+      <c r="AK6">
+        <v>42</v>
+      </c>
+      <c r="AL6">
+        <v>56</v>
+      </c>
+      <c r="AM6">
         <v>37</v>
       </c>
-      <c r="AE6">
-        <v>36</v>
-      </c>
-      <c r="AF6">
+      <c r="AN6">
+        <v>37</v>
+      </c>
+      <c r="AO6">
         <v>57</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>42</v>
+      </c>
+      <c r="AQ6">
         <v>38</v>
       </c>
-      <c r="AH6">
-        <v>37</v>
-      </c>
-      <c r="AI6">
-        <v>57</v>
-      </c>
-      <c r="AJ6">
-        <v>38</v>
-      </c>
-      <c r="AK6">
-        <v>37</v>
-      </c>
-      <c r="AL6">
-        <v>54</v>
-      </c>
-      <c r="AM6">
-        <v>36</v>
-      </c>
-      <c r="AN6">
-        <v>35</v>
-      </c>
-      <c r="AO6">
-        <v>55</v>
-      </c>
-      <c r="AP6">
-        <v>37</v>
-      </c>
-      <c r="AQ6">
-        <v>36</v>
-      </c>
       <c r="AR6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AS6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AT6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AU6">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AV6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AW6">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7">
         <v>110</v>
       </c>
       <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>112</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>98</v>
+      </c>
+      <c r="K7">
+        <v>112</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>98</v>
+      </c>
+      <c r="N7">
+        <v>110</v>
+      </c>
+      <c r="O7">
         <v>99</v>
       </c>
-      <c r="G7">
+      <c r="P7">
         <v>97</v>
-      </c>
-      <c r="H7">
-        <v>110</v>
-      </c>
-      <c r="I7">
-        <v>99</v>
-      </c>
-      <c r="J7">
-        <v>97</v>
-      </c>
-      <c r="K7">
-        <v>110</v>
-      </c>
-      <c r="L7">
-        <v>99</v>
-      </c>
-      <c r="M7">
-        <v>97</v>
-      </c>
-      <c r="N7">
-        <v>109</v>
-      </c>
-      <c r="O7">
-        <v>98</v>
-      </c>
-      <c r="P7">
-        <v>96</v>
       </c>
       <c r="Q7">
         <v>110</v>
       </c>
       <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>98</v>
+      </c>
+      <c r="T7">
+        <v>112</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>98</v>
+      </c>
+      <c r="W7">
+        <v>112</v>
+      </c>
+      <c r="X7">
+        <v>100</v>
+      </c>
+      <c r="Y7">
+        <v>98</v>
+      </c>
+      <c r="Z7">
+        <v>110</v>
+      </c>
+      <c r="AA7">
         <v>99</v>
       </c>
-      <c r="S7">
+      <c r="AB7">
         <v>97</v>
-      </c>
-      <c r="T7">
-        <v>110</v>
-      </c>
-      <c r="U7">
-        <v>99</v>
-      </c>
-      <c r="V7">
-        <v>97</v>
-      </c>
-      <c r="W7">
-        <v>110</v>
-      </c>
-      <c r="X7">
-        <v>99</v>
-      </c>
-      <c r="Y7">
-        <v>97</v>
-      </c>
-      <c r="Z7">
-        <v>109</v>
-      </c>
-      <c r="AA7">
-        <v>98</v>
-      </c>
-      <c r="AB7">
-        <v>96</v>
       </c>
       <c r="AC7">
         <v>110</v>
       </c>
       <c r="AD7">
+        <v>100</v>
+      </c>
+      <c r="AE7">
+        <v>98</v>
+      </c>
+      <c r="AF7">
+        <v>112</v>
+      </c>
+      <c r="AG7">
+        <v>100</v>
+      </c>
+      <c r="AH7">
+        <v>98</v>
+      </c>
+      <c r="AI7">
+        <v>112</v>
+      </c>
+      <c r="AJ7">
+        <v>100</v>
+      </c>
+      <c r="AK7">
+        <v>98</v>
+      </c>
+      <c r="AL7">
+        <v>110</v>
+      </c>
+      <c r="AM7">
         <v>99</v>
       </c>
-      <c r="AE7">
+      <c r="AN7">
         <v>97</v>
-      </c>
-      <c r="AF7">
-        <v>110</v>
-      </c>
-      <c r="AG7">
-        <v>99</v>
-      </c>
-      <c r="AH7">
-        <v>97</v>
-      </c>
-      <c r="AI7">
-        <v>110</v>
-      </c>
-      <c r="AJ7">
-        <v>99</v>
-      </c>
-      <c r="AK7">
-        <v>97</v>
-      </c>
-      <c r="AL7">
-        <v>109</v>
-      </c>
-      <c r="AM7">
-        <v>98</v>
-      </c>
-      <c r="AN7">
-        <v>96</v>
       </c>
       <c r="AO7">
         <v>110</v>
       </c>
       <c r="AP7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AQ7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AR7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AS7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AT7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AU7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AV7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AW7">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8">
         <v>88</v>
@@ -5868,7 +5868,7 @@
         <v>88</v>
       </c>
       <c r="E8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>88</v>
@@ -5877,7 +5877,7 @@
         <v>88</v>
       </c>
       <c r="H8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I8">
         <v>88</v>
@@ -5895,7 +5895,7 @@
         <v>88</v>
       </c>
       <c r="N8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O8">
         <v>88</v>
@@ -5904,7 +5904,7 @@
         <v>88</v>
       </c>
       <c r="Q8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="R8">
         <v>88</v>
@@ -5913,7 +5913,7 @@
         <v>88</v>
       </c>
       <c r="T8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="U8">
         <v>88</v>
@@ -5931,7 +5931,7 @@
         <v>88</v>
       </c>
       <c r="Z8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA8">
         <v>88</v>
@@ -5940,7 +5940,7 @@
         <v>88</v>
       </c>
       <c r="AC8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AD8">
         <v>88</v>
@@ -5949,7 +5949,7 @@
         <v>88</v>
       </c>
       <c r="AF8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG8">
         <v>88</v>
@@ -5967,7 +5967,7 @@
         <v>88</v>
       </c>
       <c r="AL8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM8">
         <v>88</v>
@@ -5976,7 +5976,7 @@
         <v>88</v>
       </c>
       <c r="AO8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AP8">
         <v>88</v>
@@ -5985,7 +5985,7 @@
         <v>88</v>
       </c>
       <c r="AR8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AS8">
         <v>88</v>
@@ -6005,168 +6005,168 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B9">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D9">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E9">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F9">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G9">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H9">
+        <v>124</v>
+      </c>
+      <c r="I9">
         <v>114</v>
       </c>
-      <c r="I9">
-        <v>96</v>
-      </c>
       <c r="J9">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="K9">
+        <v>125</v>
+      </c>
+      <c r="L9">
         <v>114</v>
       </c>
-      <c r="L9">
-        <v>100</v>
-      </c>
       <c r="M9">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N9">
+        <v>57</v>
+      </c>
+      <c r="O9">
+        <v>61</v>
+      </c>
+      <c r="P9">
+        <v>61</v>
+      </c>
+      <c r="Q9">
+        <v>58</v>
+      </c>
+      <c r="R9">
+        <v>62</v>
+      </c>
+      <c r="S9">
+        <v>62</v>
+      </c>
+      <c r="T9">
+        <v>63</v>
+      </c>
+      <c r="U9">
+        <v>65</v>
+      </c>
+      <c r="V9">
+        <v>64</v>
+      </c>
+      <c r="W9">
+        <v>64</v>
+      </c>
+      <c r="X9">
+        <v>65</v>
+      </c>
+      <c r="Y9">
+        <v>65</v>
+      </c>
+      <c r="Z9">
+        <v>49</v>
+      </c>
+      <c r="AA9">
+        <v>51</v>
+      </c>
+      <c r="AB9">
+        <v>49</v>
+      </c>
+      <c r="AC9">
+        <v>50</v>
+      </c>
+      <c r="AD9">
+        <v>52</v>
+      </c>
+      <c r="AE9">
+        <v>52</v>
+      </c>
+      <c r="AF9">
+        <v>52</v>
+      </c>
+      <c r="AG9">
+        <v>55</v>
+      </c>
+      <c r="AH9">
+        <v>55</v>
+      </c>
+      <c r="AI9">
+        <v>52</v>
+      </c>
+      <c r="AJ9">
+        <v>55</v>
+      </c>
+      <c r="AK9">
+        <v>55</v>
+      </c>
+      <c r="AL9">
+        <v>50</v>
+      </c>
+      <c r="AM9">
+        <v>51</v>
+      </c>
+      <c r="AN9">
+        <v>49</v>
+      </c>
+      <c r="AO9">
+        <v>50</v>
+      </c>
+      <c r="AP9">
         <v>53</v>
       </c>
-      <c r="O9">
-        <v>56</v>
-      </c>
-      <c r="P9">
+      <c r="AQ9">
+        <v>53</v>
+      </c>
+      <c r="AR9">
+        <v>52</v>
+      </c>
+      <c r="AS9">
         <v>55</v>
       </c>
-      <c r="Q9">
+      <c r="AT9">
         <v>55</v>
       </c>
-      <c r="R9">
-        <v>59</v>
-      </c>
-      <c r="S9">
-        <v>58</v>
-      </c>
-      <c r="T9">
-        <v>57</v>
-      </c>
-      <c r="U9">
-        <v>62</v>
-      </c>
-      <c r="V9">
-        <v>61</v>
-      </c>
-      <c r="W9">
-        <v>57</v>
-      </c>
-      <c r="X9">
-        <v>62</v>
-      </c>
-      <c r="Y9">
-        <v>61</v>
-      </c>
-      <c r="Z9">
-        <v>44</v>
-      </c>
-      <c r="AA9">
-        <v>46</v>
-      </c>
-      <c r="AB9">
-        <v>45</v>
-      </c>
-      <c r="AC9">
-        <v>46</v>
-      </c>
-      <c r="AD9">
-        <v>49</v>
-      </c>
-      <c r="AE9">
-        <v>48</v>
-      </c>
-      <c r="AF9">
-        <v>50</v>
-      </c>
-      <c r="AG9">
-        <v>51</v>
-      </c>
-      <c r="AH9">
-        <v>50</v>
-      </c>
-      <c r="AI9">
-        <v>50</v>
-      </c>
-      <c r="AJ9">
-        <v>51</v>
-      </c>
-      <c r="AK9">
-        <v>51</v>
-      </c>
-      <c r="AL9">
-        <v>45</v>
-      </c>
-      <c r="AM9">
-        <v>46</v>
-      </c>
-      <c r="AN9">
-        <v>45</v>
-      </c>
-      <c r="AO9">
-        <v>46</v>
-      </c>
-      <c r="AP9">
-        <v>49</v>
-      </c>
-      <c r="AQ9">
-        <v>48</v>
-      </c>
-      <c r="AR9">
-        <v>50</v>
-      </c>
-      <c r="AS9">
-        <v>51</v>
-      </c>
-      <c r="AT9">
-        <v>50</v>
-      </c>
       <c r="AU9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AV9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AW9">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B10">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C10">
+        <v>97</v>
+      </c>
+      <c r="D10">
         <v>96</v>
       </c>
-      <c r="D10">
-        <v>95</v>
-      </c>
       <c r="E10">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>97</v>
@@ -6178,10 +6178,10 @@
         <v>111</v>
       </c>
       <c r="I10">
+        <v>98</v>
+      </c>
+      <c r="J10">
         <v>97</v>
-      </c>
-      <c r="J10">
-        <v>96</v>
       </c>
       <c r="K10">
         <v>111</v>
@@ -6190,22 +6190,22 @@
         <v>98</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P10">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R10">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S10">
         <v>90</v>
@@ -6214,37 +6214,37 @@
         <v>106</v>
       </c>
       <c r="U10">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="V10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W10">
         <v>106</v>
       </c>
       <c r="X10">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z10">
         <v>101</v>
       </c>
       <c r="AA10">
+        <v>87</v>
+      </c>
+      <c r="AB10">
         <v>85</v>
       </c>
-      <c r="AB10">
-        <v>84</v>
-      </c>
       <c r="AC10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD10">
+        <v>88</v>
+      </c>
+      <c r="AE10">
         <v>87</v>
-      </c>
-      <c r="AE10">
-        <v>85</v>
       </c>
       <c r="AF10">
         <v>103</v>
@@ -6253,7 +6253,7 @@
         <v>88</v>
       </c>
       <c r="AH10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI10">
         <v>103</v>
@@ -6262,34 +6262,34 @@
         <v>88</v>
       </c>
       <c r="AK10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL10">
         <v>101</v>
       </c>
       <c r="AM10">
+        <v>87</v>
+      </c>
+      <c r="AN10">
         <v>85</v>
       </c>
-      <c r="AN10">
-        <v>84</v>
-      </c>
       <c r="AO10">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AP10">
+        <v>88</v>
+      </c>
+      <c r="AQ10">
         <v>87</v>
-      </c>
-      <c r="AQ10">
-        <v>85</v>
       </c>
       <c r="AR10">
         <v>103</v>
       </c>
       <c r="AS10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AT10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU10">
         <v>103</v>
@@ -6298,305 +6298,305 @@
         <v>88</v>
       </c>
       <c r="AW10">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E11">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F11">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G11">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H11">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="I11">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="K11">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="N11">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O11">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P11">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="Q11">
+        <v>64</v>
+      </c>
+      <c r="R11">
+        <v>66</v>
+      </c>
+      <c r="S11">
+        <v>65</v>
+      </c>
+      <c r="T11">
+        <v>73</v>
+      </c>
+      <c r="U11">
+        <v>76</v>
+      </c>
+      <c r="V11">
+        <v>75</v>
+      </c>
+      <c r="W11">
+        <v>76</v>
+      </c>
+      <c r="X11">
+        <v>76</v>
+      </c>
+      <c r="Y11">
+        <v>76</v>
+      </c>
+      <c r="Z11">
+        <v>51</v>
+      </c>
+      <c r="AA11">
+        <v>51</v>
+      </c>
+      <c r="AB11">
+        <v>51</v>
+      </c>
+      <c r="AC11">
+        <v>56</v>
+      </c>
+      <c r="AD11">
         <v>57</v>
       </c>
-      <c r="R11">
-        <v>57</v>
-      </c>
-      <c r="S11">
-        <v>57</v>
-      </c>
-      <c r="T11">
-        <v>63</v>
-      </c>
-      <c r="U11">
-        <v>64</v>
-      </c>
-      <c r="V11">
-        <v>63</v>
-      </c>
-      <c r="W11">
-        <v>63</v>
-      </c>
-      <c r="X11">
-        <v>64</v>
-      </c>
-      <c r="Y11">
-        <v>64</v>
-      </c>
-      <c r="Z11">
-        <v>44</v>
-      </c>
-      <c r="AA11">
-        <v>44</v>
-      </c>
-      <c r="AB11">
-        <v>44</v>
-      </c>
-      <c r="AC11">
-        <v>48</v>
-      </c>
-      <c r="AD11">
-        <v>48</v>
-      </c>
       <c r="AE11">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF11">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AG11">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AH11">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AI11">
+        <v>62</v>
+      </c>
+      <c r="AJ11">
+        <v>62</v>
+      </c>
+      <c r="AK11">
+        <v>61</v>
+      </c>
+      <c r="AL11">
+        <v>49</v>
+      </c>
+      <c r="AM11">
+        <v>50</v>
+      </c>
+      <c r="AN11">
+        <v>50</v>
+      </c>
+      <c r="AO11">
         <v>56</v>
       </c>
-      <c r="AJ11">
+      <c r="AP11">
         <v>55</v>
       </c>
-      <c r="AK11">
+      <c r="AQ11">
         <v>55</v>
       </c>
-      <c r="AL11">
-        <v>42</v>
-      </c>
-      <c r="AM11">
-        <v>43</v>
-      </c>
-      <c r="AN11">
-        <v>43</v>
-      </c>
-      <c r="AO11">
-        <v>45</v>
-      </c>
-      <c r="AP11">
-        <v>48</v>
-      </c>
-      <c r="AQ11">
-        <v>48</v>
-      </c>
       <c r="AR11">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AS11">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="AT11">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="AU11">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AV11">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="AW11">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C12">
         <v>33</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F12">
         <v>33</v>
       </c>
       <c r="G12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I12">
         <v>33</v>
       </c>
       <c r="J12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L12">
         <v>33</v>
       </c>
       <c r="M12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O12">
         <v>33</v>
       </c>
       <c r="P12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R12">
         <v>33</v>
       </c>
       <c r="S12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U12">
         <v>33</v>
       </c>
       <c r="V12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X12">
         <v>33</v>
       </c>
       <c r="Y12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AA12">
         <v>33</v>
       </c>
       <c r="AB12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AD12">
         <v>33</v>
       </c>
       <c r="AE12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG12">
         <v>33</v>
       </c>
       <c r="AH12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ12">
         <v>33</v>
       </c>
       <c r="AK12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM12">
         <v>33</v>
       </c>
       <c r="AN12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AP12">
         <v>33</v>
       </c>
       <c r="AQ12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AS12">
         <v>33</v>
       </c>
       <c r="AT12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU12">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AV12">
         <v>33</v>
       </c>
       <c r="AW12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6608,164 +6608,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>55</v>
@@ -6876,7 +6874,7 @@
         <v>56</v>
       </c>
       <c r="AL2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM2">
         <v>56</v>
@@ -6885,7 +6883,7 @@
         <v>56</v>
       </c>
       <c r="AO2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP2">
         <v>56</v>
@@ -6914,7 +6912,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>55</v>
@@ -6971,7 +6969,7 @@
         <v>55</v>
       </c>
       <c r="T3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3">
         <v>56</v>
@@ -6980,7 +6978,7 @@
         <v>55</v>
       </c>
       <c r="W3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X3">
         <v>56</v>
@@ -7063,7 +7061,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -7072,34 +7070,34 @@
         <v>53</v>
       </c>
       <c r="D4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4">
         <v>55</v>
       </c>
       <c r="F4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>55</v>
       </c>
       <c r="I4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
         <v>55</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>55</v>
@@ -7108,34 +7106,34 @@
         <v>53</v>
       </c>
       <c r="P4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q4">
         <v>55</v>
       </c>
       <c r="R4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T4">
         <v>55</v>
       </c>
       <c r="U4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W4">
         <v>55</v>
       </c>
       <c r="X4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z4">
         <v>55</v>
@@ -7144,34 +7142,34 @@
         <v>53</v>
       </c>
       <c r="AB4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC4">
         <v>55</v>
       </c>
       <c r="AD4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF4">
         <v>55</v>
       </c>
       <c r="AG4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AH4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AI4">
         <v>55</v>
       </c>
       <c r="AJ4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AL4">
         <v>55</v>
@@ -7180,39 +7178,39 @@
         <v>53</v>
       </c>
       <c r="AN4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AO4">
         <v>55</v>
       </c>
       <c r="AP4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AQ4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR4">
         <v>55</v>
       </c>
       <c r="AS4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AT4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AU4">
         <v>55</v>
       </c>
       <c r="AV4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AW4">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>55</v>
@@ -7236,7 +7234,7 @@
         <v>55</v>
       </c>
       <c r="I5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5">
         <v>58</v>
@@ -7245,13 +7243,13 @@
         <v>55</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M5">
         <v>58</v>
       </c>
       <c r="N5">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>58</v>
@@ -7260,7 +7258,7 @@
         <v>58</v>
       </c>
       <c r="Q5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R5">
         <v>58</v>
@@ -7269,7 +7267,7 @@
         <v>58</v>
       </c>
       <c r="T5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U5">
         <v>58</v>
@@ -7278,7 +7276,7 @@
         <v>58</v>
       </c>
       <c r="W5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X5">
         <v>58</v>
@@ -7361,13 +7359,13 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>55</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>59</v>
@@ -7376,7 +7374,7 @@
         <v>55</v>
       </c>
       <c r="F6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>59</v>
@@ -7385,19 +7383,19 @@
         <v>55</v>
       </c>
       <c r="I6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K6">
         <v>55</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N6">
         <v>55</v>
@@ -7436,7 +7434,7 @@
         <v>59</v>
       </c>
       <c r="Z6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA6">
         <v>56</v>
@@ -7445,7 +7443,7 @@
         <v>59</v>
       </c>
       <c r="AC6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD6">
         <v>56</v>
@@ -7454,7 +7452,7 @@
         <v>59</v>
       </c>
       <c r="AF6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG6">
         <v>56</v>
@@ -7463,7 +7461,7 @@
         <v>59</v>
       </c>
       <c r="AI6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ6">
         <v>56</v>
@@ -7472,7 +7470,7 @@
         <v>59</v>
       </c>
       <c r="AL6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AM6">
         <v>56</v>
@@ -7481,7 +7479,7 @@
         <v>59</v>
       </c>
       <c r="AO6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AP6">
         <v>56</v>
@@ -7490,7 +7488,7 @@
         <v>59</v>
       </c>
       <c r="AR6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS6">
         <v>56</v>
@@ -7499,7 +7497,7 @@
         <v>59</v>
       </c>
       <c r="AU6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AV6">
         <v>56</v>
@@ -7510,10 +7508,10 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>62</v>
@@ -7522,7 +7520,7 @@
         <v>65</v>
       </c>
       <c r="E7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <v>62</v>
@@ -7531,7 +7529,7 @@
         <v>65</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7">
         <v>62</v>
@@ -7549,7 +7547,7 @@
         <v>65</v>
       </c>
       <c r="N7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O7">
         <v>62</v>
@@ -7558,7 +7556,7 @@
         <v>65</v>
       </c>
       <c r="Q7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R7">
         <v>62</v>
@@ -7567,7 +7565,7 @@
         <v>65</v>
       </c>
       <c r="T7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U7">
         <v>62</v>
@@ -7585,7 +7583,7 @@
         <v>65</v>
       </c>
       <c r="Z7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA7">
         <v>62</v>
@@ -7594,7 +7592,7 @@
         <v>65</v>
       </c>
       <c r="AC7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AD7">
         <v>62</v>
@@ -7603,7 +7601,7 @@
         <v>65</v>
       </c>
       <c r="AF7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG7">
         <v>62</v>
@@ -7621,7 +7619,7 @@
         <v>65</v>
       </c>
       <c r="AL7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AM7">
         <v>62</v>
@@ -7630,7 +7628,7 @@
         <v>65</v>
       </c>
       <c r="AO7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AP7">
         <v>62</v>
@@ -7639,7 +7637,7 @@
         <v>65</v>
       </c>
       <c r="AR7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AS7">
         <v>62</v>
@@ -7659,7 +7657,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>55</v>
@@ -7808,7 +7806,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>55</v>
@@ -7847,7 +7845,7 @@
         <v>57</v>
       </c>
       <c r="N9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O9">
         <v>55</v>
@@ -7856,7 +7854,7 @@
         <v>57</v>
       </c>
       <c r="Q9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R9">
         <v>55</v>
@@ -7865,7 +7863,7 @@
         <v>57</v>
       </c>
       <c r="T9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U9">
         <v>55</v>
@@ -7874,7 +7872,7 @@
         <v>57</v>
       </c>
       <c r="W9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X9">
         <v>55</v>
@@ -7883,7 +7881,7 @@
         <v>57</v>
       </c>
       <c r="Z9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA9">
         <v>55</v>
@@ -7892,7 +7890,7 @@
         <v>57</v>
       </c>
       <c r="AC9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD9">
         <v>55</v>
@@ -7901,7 +7899,7 @@
         <v>57</v>
       </c>
       <c r="AF9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AG9">
         <v>55</v>
@@ -7910,7 +7908,7 @@
         <v>57</v>
       </c>
       <c r="AI9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AJ9">
         <v>55</v>
@@ -7919,7 +7917,7 @@
         <v>57</v>
       </c>
       <c r="AL9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AM9">
         <v>55</v>
@@ -7928,7 +7926,7 @@
         <v>57</v>
       </c>
       <c r="AO9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AP9">
         <v>55</v>
@@ -7937,7 +7935,7 @@
         <v>57</v>
       </c>
       <c r="AR9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AS9">
         <v>55</v>
@@ -7946,7 +7944,7 @@
         <v>57</v>
       </c>
       <c r="AU9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AV9">
         <v>55</v>
@@ -7957,7 +7955,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>55</v>
@@ -7996,16 +7994,16 @@
         <v>60</v>
       </c>
       <c r="N10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P10">
         <v>60</v>
       </c>
       <c r="Q10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10">
         <v>57</v>
@@ -8014,7 +8012,7 @@
         <v>60</v>
       </c>
       <c r="T10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U10">
         <v>57</v>
@@ -8023,7 +8021,7 @@
         <v>60</v>
       </c>
       <c r="W10">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X10">
         <v>57</v>
@@ -8035,7 +8033,7 @@
         <v>56</v>
       </c>
       <c r="AA10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB10">
         <v>60</v>
@@ -8044,7 +8042,7 @@
         <v>56</v>
       </c>
       <c r="AD10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE10">
         <v>60</v>
@@ -8053,7 +8051,7 @@
         <v>56</v>
       </c>
       <c r="AG10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH10">
         <v>60</v>
@@ -8062,7 +8060,7 @@
         <v>56</v>
       </c>
       <c r="AJ10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK10">
         <v>60</v>
@@ -8071,7 +8069,7 @@
         <v>56</v>
       </c>
       <c r="AM10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AN10">
         <v>60</v>
@@ -8080,7 +8078,7 @@
         <v>56</v>
       </c>
       <c r="AP10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AQ10">
         <v>60</v>
@@ -8089,7 +8087,7 @@
         <v>56</v>
       </c>
       <c r="AS10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AT10">
         <v>60</v>
@@ -8098,7 +8096,7 @@
         <v>56</v>
       </c>
       <c r="AV10">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AW10">
         <v>60</v>
@@ -8106,34 +8104,34 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>55</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>55</v>
       </c>
       <c r="F11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11">
         <v>55</v>
       </c>
       <c r="I11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11">
         <v>55</v>
@@ -8142,10 +8140,10 @@
         <v>56</v>
       </c>
       <c r="M11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O11">
         <v>58</v>
@@ -8154,7 +8152,7 @@
         <v>60</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11">
         <v>58</v>
@@ -8163,19 +8161,19 @@
         <v>60</v>
       </c>
       <c r="T11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V11">
         <v>60</v>
       </c>
       <c r="W11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y11">
         <v>60</v>
@@ -8199,7 +8197,7 @@
         <v>60</v>
       </c>
       <c r="AF11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG11">
         <v>58</v>
@@ -8208,7 +8206,7 @@
         <v>60</v>
       </c>
       <c r="AI11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ11">
         <v>58</v>
@@ -8235,7 +8233,7 @@
         <v>60</v>
       </c>
       <c r="AR11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AS11">
         <v>58</v>
@@ -8244,7 +8242,7 @@
         <v>60</v>
       </c>
       <c r="AU11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AV11">
         <v>58</v>
@@ -8255,7 +8253,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>55</v>
@@ -8411,164 +8409,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>4731.3004225676159</v>
@@ -8717,7 +8713,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>8578.3015289430768</v>
@@ -8866,7 +8862,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>2959.485984745786</v>
@@ -9015,7 +9011,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>14416.193431214189</v>
@@ -9164,7 +9160,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>17375.67941595997</v>
@@ -9313,7 +9309,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>17223.019191765248</v>
@@ -9462,7 +9458,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>18098.910433724879</v>
@@ -9611,7 +9607,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>53837.032848826762</v>
@@ -9760,7 +9756,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>35474.589849684853</v>
@@ -9909,7 +9905,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>61192.19156074887</v>
@@ -10058,7 +10054,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>6163.6207069862521</v>
@@ -10214,167 +10210,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>175.56857424563151</v>
@@ -10523,7 +10514,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>124.9048230040403</v>
@@ -10672,7 +10663,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>115.3820322646184</v>
@@ -10821,7 +10812,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>233.5491105757354</v>
@@ -10970,7 +10961,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>191.44379560864769</v>
@@ -11119,7 +11110,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>13.194773082208171</v>
@@ -11268,7 +11259,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>838.22793563369896</v>
@@ -11417,7 +11408,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>3.3106073787315952E-8</v>
@@ -11566,7 +11557,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>5.542739129369802E-9</v>
@@ -11722,164 +11713,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.6151493985586225</v>
@@ -12028,7 +12017,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0.58623569772108564</v>
@@ -12177,7 +12166,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0.39367286200079038</v>
@@ -12326,7 +12315,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0.35129317683739109</v>
@@ -12475,7 +12464,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0.34220369155253949</v>
@@ -12624,7 +12613,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>0.43013456261343519</v>
@@ -12773,7 +12762,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>0.38990416497133151</v>
@@ -12922,7 +12911,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>0.6929097782604392</v>
@@ -13071,7 +13060,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>0.26771854712231918</v>
@@ -13220,7 +13209,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>0.53183679565512632</v>
@@ -13369,7 +13358,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>0.11386639135190629</v>
@@ -13525,164 +13514,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.79504113309200708</v>
@@ -13831,7 +13818,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>1.014884777527068</v>
@@ -13980,7 +13967,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>1.854935185645332</v>
@@ -14129,7 +14116,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>2.1849866262881581</v>
@@ -14278,7 +14265,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>2.1102723047536109</v>
@@ -14427,7 +14414,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>1.200795999585702</v>
@@ -14576,7 +14563,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>1.1432579597380239</v>
@@ -14725,7 +14712,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>2.4801918249197081</v>
@@ -14874,7 +14861,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>1.27029714115521</v>
@@ -15023,7 +15010,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>2.4216645851997631</v>
@@ -15172,7 +15159,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>0.37926029110544118</v>
@@ -15328,164 +15315,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AW12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>0.65213972114625296</v>
@@ -15634,7 +15619,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>0.63186071988508763</v>
@@ -15783,7 +15768,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0.32820441628911889</v>
@@ -15932,7 +15917,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>0.56364276675119973</v>
@@ -16081,7 +16066,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0.4990776535079352</v>
@@ -16230,7 +16215,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>0.52830381333211662</v>
@@ -16379,7 +16364,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>0.4858619813912658</v>
@@ -16528,7 +16513,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>0.73317553325110896</v>
@@ -16677,7 +16662,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <v>0.31913905236546142</v>
@@ -16826,7 +16811,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>0.58623160311215117</v>
@@ -16975,7 +16960,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>5.6285162576675003E-3</v>
@@ -17131,167 +17116,162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>14611.515859794041</v>
@@ -17440,7 +17420,7 @@
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>28523.651726454089</v>
@@ -17589,7 +17569,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>8029.1238555105856</v>
@@ -17751,6 +17731,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="db4016cf-de10-403d-9195-e67533fc549a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b6f89c3f-b2a5-4746-8c53-b6e8dab6cd89">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C7B079C57F67741AFBBED490AEC2B6A" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a560f2885b7486ee9f808dd3ee03b7bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b6f89c3f-b2a5-4746-8c53-b6e8dab6cd89" xmlns:ns3="db4016cf-de10-403d-9195-e67533fc549a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="83f7e10e24ac1a11b3a3b0f56205bec0" ns2:_="" ns3:_="">
     <xsd:import namespace="b6f89c3f-b2a5-4746-8c53-b6e8dab6cd89"/>
@@ -17979,19 +17970,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="db4016cf-de10-403d-9195-e67533fc549a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b6f89c3f-b2a5-4746-8c53-b6e8dab6cd89">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84C10FD7-7484-4EF6-A02F-76AC64119073}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D07A749C-CC93-4694-8B8A-E7079AF9AB26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -17999,7 +17979,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1910D583-27C7-4408-B048-FE2953996D39}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AB3B53-DB1A-49A7-9963-53F75E497731}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db4016cf-de10-403d-9195-e67533fc549a"/>
+    <ds:schemaRef ds:uri="b6f89c3f-b2a5-4746-8c53-b6e8dab6cd89"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF42E6B5-A353-4F9F-A87F-54A244DF900D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18015,21 +18006,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE6FFD1-61DB-4510-B809-9B8F1A456581}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="db4016cf-de10-403d-9195-e67533fc549a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b6f89c3f-b2a5-4746-8c53-b6e8dab6cd89"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>